--- a/RCS_Analysis.xlsx
+++ b/RCS_Analysis.xlsx
@@ -7,19 +7,20 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="1. Daily Traffic" sheetId="1" r:id="rId1"/>
-    <sheet name="2. OD Agent Traffic" sheetId="2" r:id="rId2"/>
-    <sheet name="3. Content Types" sheetId="3" r:id="rId3"/>
-    <sheet name="4. Detailed Hierarchy" sheetId="4" r:id="rId4"/>
-    <sheet name="5. Agg-Agent" sheetId="5" r:id="rId5"/>
-    <sheet name="6. Agent-Agg" sheetId="6" r:id="rId6"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="OD Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="Daywise OD summary" sheetId="3" r:id="rId3"/>
+    <sheet name="Daywise" sheetId="4" r:id="rId4"/>
+    <sheet name="Aggregator" sheetId="5" r:id="rId5"/>
+    <sheet name="Botwise" sheetId="6" r:id="rId6"/>
+    <sheet name="RCSVol&amp;SMSVol" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10181" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10191" uniqueCount="349">
   <si>
     <t>CPL_Sent</t>
   </si>
@@ -1046,6 +1047,27 @@
   <si>
     <t>ValueFirst UAT</t>
   </si>
+  <si>
+    <t>Projection</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>PartType</t>
+  </si>
+  <si>
+    <t>RCS Vol</t>
+  </si>
+  <si>
+    <t>SMS Vol</t>
+  </si>
+  <si>
+    <t>Multipart</t>
+  </si>
+  <si>
+    <t>Single Part</t>
+  </si>
 </sst>
 </file>
 
@@ -1537,7 +1559,7 @@
         <v>8861777</v>
       </c>
       <c r="C6">
-        <v>8739300</v>
+        <v>8739332</v>
       </c>
       <c r="D6">
         <v>6049385</v>
@@ -1560,7 +1582,7 @@
         <v>13982458</v>
       </c>
       <c r="C7">
-        <v>13487267</v>
+        <v>13487297</v>
       </c>
       <c r="D7">
         <v>9303262</v>
@@ -1583,7 +1605,7 @@
         <v>4869717</v>
       </c>
       <c r="C8">
-        <v>4806033</v>
+        <v>4806080</v>
       </c>
       <c r="D8">
         <v>15637746</v>
@@ -1606,7 +1628,7 @@
         <v>2839632</v>
       </c>
       <c r="C9">
-        <v>2798294</v>
+        <v>2798316</v>
       </c>
       <c r="D9">
         <v>17710795</v>
@@ -1652,7 +1674,7 @@
         <v>4420145</v>
       </c>
       <c r="C11">
-        <v>4353069</v>
+        <v>4353108</v>
       </c>
       <c r="D11">
         <v>11404327</v>
@@ -1675,13 +1697,13 @@
         <v>5533685</v>
       </c>
       <c r="C12">
-        <v>5436536</v>
+        <v>5436600</v>
       </c>
       <c r="D12">
         <v>11519607</v>
       </c>
       <c r="E12">
-        <v>11179225</v>
+        <v>11179238</v>
       </c>
       <c r="F12">
         <v>23351178</v>
@@ -1698,13 +1720,13 @@
         <v>9091253</v>
       </c>
       <c r="C13">
-        <v>8913574</v>
+        <v>8913642</v>
       </c>
       <c r="D13">
         <v>17103847</v>
       </c>
       <c r="E13">
-        <v>16672905</v>
+        <v>16672925</v>
       </c>
       <c r="F13">
         <v>21270498</v>
@@ -1721,13 +1743,13 @@
         <v>6609576</v>
       </c>
       <c r="C14">
-        <v>6498440</v>
+        <v>6498585</v>
       </c>
       <c r="D14">
         <v>18274540</v>
       </c>
       <c r="E14">
-        <v>17805030</v>
+        <v>17805109</v>
       </c>
       <c r="F14">
         <v>20010694</v>
@@ -1744,13 +1766,13 @@
         <v>51551063</v>
       </c>
       <c r="C15">
-        <v>49560610</v>
+        <v>49560694</v>
       </c>
       <c r="D15">
         <v>10867435</v>
       </c>
       <c r="E15">
-        <v>10527612</v>
+        <v>10527683</v>
       </c>
       <c r="F15">
         <v>8870815</v>
@@ -1767,13 +1789,13 @@
         <v>2057385</v>
       </c>
       <c r="C16">
-        <v>2019598</v>
+        <v>2019626</v>
       </c>
       <c r="D16">
         <v>13476248</v>
       </c>
       <c r="E16">
-        <v>13136712</v>
+        <v>13136745</v>
       </c>
       <c r="F16">
         <v>22294372</v>
@@ -1790,13 +1812,13 @@
         <v>2498705</v>
       </c>
       <c r="C17">
-        <v>2448437</v>
+        <v>2448537</v>
       </c>
       <c r="D17">
         <v>13921471</v>
       </c>
       <c r="E17">
-        <v>13642037</v>
+        <v>13642039</v>
       </c>
       <c r="F17">
         <v>16870552</v>
@@ -1813,13 +1835,13 @@
         <v>7297874</v>
       </c>
       <c r="C18">
-        <v>7130821</v>
+        <v>7131241</v>
       </c>
       <c r="D18">
         <v>5265085</v>
       </c>
       <c r="E18">
-        <v>5081676</v>
+        <v>5081713</v>
       </c>
       <c r="F18">
         <v>29026135</v>
@@ -1836,13 +1858,13 @@
         <v>8862772</v>
       </c>
       <c r="C19">
-        <v>8656518</v>
+        <v>8657231</v>
       </c>
       <c r="D19">
         <v>8330245</v>
       </c>
       <c r="E19">
-        <v>7987708</v>
+        <v>7987812</v>
       </c>
       <c r="F19">
         <v>27980066</v>
@@ -1859,19 +1881,19 @@
         <v>6836909</v>
       </c>
       <c r="C20">
-        <v>6646207</v>
+        <v>6647797</v>
       </c>
       <c r="D20">
         <v>6439724</v>
       </c>
       <c r="E20">
-        <v>6226941</v>
+        <v>6227594</v>
       </c>
       <c r="F20">
         <v>22776962</v>
       </c>
       <c r="G20">
-        <v>19398134</v>
+        <v>19398153</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1882,19 +1904,19 @@
         <v>179461829</v>
       </c>
       <c r="C21">
-        <v>174365189</v>
+        <v>174368571</v>
       </c>
       <c r="D21">
         <v>227175864</v>
       </c>
       <c r="E21">
-        <v>220737912</v>
+        <v>220738924</v>
       </c>
       <c r="F21">
         <v>390257963</v>
       </c>
       <c r="G21">
-        <v>329333921</v>
+        <v>329333940</v>
       </c>
     </row>
   </sheetData>
@@ -1937,7 +1959,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>1474114</v>
+        <v>1474131</v>
       </c>
       <c r="C3">
         <v>1593972</v>
@@ -2069,7 +2091,7 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>17544713</v>
+        <v>17544715</v>
       </c>
       <c r="C15">
         <v>25441987</v>
@@ -2179,7 +2201,7 @@
         <v>7</v>
       </c>
       <c r="B25">
-        <v>329333921</v>
+        <v>329333940</v>
       </c>
       <c r="C25">
         <v>390257963</v>
@@ -12174,7 +12196,7 @@
         <v>1282799</v>
       </c>
       <c r="G421">
-        <v>1269813</v>
+        <v>1269817</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -12266,7 +12288,7 @@
         <v>1396712</v>
       </c>
       <c r="G425">
-        <v>1377926</v>
+        <v>1377935</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -12312,7 +12334,7 @@
         <v>2449886</v>
       </c>
       <c r="G427">
-        <v>2409565</v>
+        <v>2409575</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -12358,7 +12380,7 @@
         <v>2103789</v>
       </c>
       <c r="G429">
-        <v>2076704</v>
+        <v>2076707</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -12565,7 +12587,7 @@
         <v>1589626</v>
       </c>
       <c r="G438">
-        <v>1567469</v>
+        <v>1567475</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -15072,7 +15094,7 @@
         <v>536013</v>
       </c>
       <c r="G547">
-        <v>528899</v>
+        <v>528905</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -15164,7 +15186,7 @@
         <v>313901</v>
       </c>
       <c r="G551">
-        <v>309471</v>
+        <v>309474</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -15302,7 +15324,7 @@
         <v>2726080</v>
       </c>
       <c r="G557">
-        <v>2687486</v>
+        <v>2687507</v>
       </c>
     </row>
     <row r="558" spans="1:7">
@@ -17855,7 +17877,7 @@
         <v>262510</v>
       </c>
       <c r="G668">
-        <v>261315</v>
+        <v>261316</v>
       </c>
     </row>
     <row r="669" spans="1:7">
@@ -17993,7 +18015,7 @@
         <v>136532</v>
       </c>
       <c r="G674">
-        <v>134883</v>
+        <v>134884</v>
       </c>
     </row>
     <row r="675" spans="1:7">
@@ -18085,7 +18107,7 @@
         <v>114764</v>
       </c>
       <c r="G678">
-        <v>113144</v>
+        <v>113146</v>
       </c>
     </row>
     <row r="679" spans="1:7">
@@ -18131,7 +18153,7 @@
         <v>975731</v>
       </c>
       <c r="G680">
-        <v>962510</v>
+        <v>962516</v>
       </c>
     </row>
     <row r="681" spans="1:7">
@@ -18292,7 +18314,7 @@
         <v>2686715</v>
       </c>
       <c r="G687">
-        <v>2652755</v>
+        <v>2652788</v>
       </c>
     </row>
     <row r="688" spans="1:7">
@@ -18361,7 +18383,7 @@
         <v>375318</v>
       </c>
       <c r="G690">
-        <v>369870</v>
+        <v>369874</v>
       </c>
     </row>
     <row r="691" spans="1:7">
@@ -21075,7 +21097,7 @@
         <v>306372</v>
       </c>
       <c r="G808">
-        <v>304799</v>
+        <v>304802</v>
       </c>
     </row>
     <row r="809" spans="1:7">
@@ -21443,7 +21465,7 @@
         <v>950597</v>
       </c>
       <c r="G824">
-        <v>938304</v>
+        <v>938311</v>
       </c>
     </row>
     <row r="825" spans="1:7">
@@ -21558,7 +21580,7 @@
         <v>1239666</v>
       </c>
       <c r="G829">
-        <v>1219522</v>
+        <v>1219534</v>
       </c>
     </row>
     <row r="830" spans="1:7">
@@ -26066,7 +26088,7 @@
         <v>151563</v>
       </c>
       <c r="G1025">
-        <v>149018</v>
+        <v>149022</v>
       </c>
     </row>
     <row r="1026" spans="1:7">
@@ -26089,7 +26111,7 @@
         <v>537776</v>
       </c>
       <c r="G1026">
-        <v>532066</v>
+        <v>532073</v>
       </c>
     </row>
     <row r="1027" spans="1:7">
@@ -26158,7 +26180,7 @@
         <v>3261479</v>
       </c>
       <c r="G1029">
-        <v>3215747</v>
+        <v>3215775</v>
       </c>
     </row>
     <row r="1030" spans="1:7">
@@ -28435,7 +28457,7 @@
         <v>75691</v>
       </c>
       <c r="G1128">
-        <v>74612</v>
+        <v>74613</v>
       </c>
     </row>
     <row r="1129" spans="1:7">
@@ -28458,7 +28480,7 @@
         <v>538328</v>
       </c>
       <c r="G1129">
-        <v>530163</v>
+        <v>530181</v>
       </c>
     </row>
     <row r="1130" spans="1:7">
@@ -28619,7 +28641,7 @@
         <v>215287</v>
       </c>
       <c r="G1136">
-        <v>211766</v>
+        <v>211767</v>
       </c>
     </row>
     <row r="1137" spans="1:7">
@@ -28665,7 +28687,7 @@
         <v>433635</v>
       </c>
       <c r="G1138">
-        <v>427962</v>
+        <v>427967</v>
       </c>
     </row>
     <row r="1139" spans="1:7">
@@ -28711,7 +28733,7 @@
         <v>1115414</v>
       </c>
       <c r="G1140">
-        <v>1100228</v>
+        <v>1100237</v>
       </c>
     </row>
     <row r="1141" spans="1:7">
@@ -28826,7 +28848,7 @@
         <v>230363</v>
       </c>
       <c r="G1145">
-        <v>226940</v>
+        <v>226944</v>
       </c>
     </row>
     <row r="1146" spans="1:7">
@@ -28849,7 +28871,7 @@
         <v>1807392</v>
       </c>
       <c r="G1146">
-        <v>1777987</v>
+        <v>1778013</v>
       </c>
     </row>
     <row r="1147" spans="1:7">
@@ -29700,7 +29722,7 @@
         <v>994042</v>
       </c>
       <c r="G1183">
-        <v>979664</v>
+        <v>979677</v>
       </c>
     </row>
     <row r="1184" spans="1:7">
@@ -31563,7 +31585,7 @@
         <v>301907</v>
       </c>
       <c r="G1264">
-        <v>297360</v>
+        <v>297365</v>
       </c>
     </row>
     <row r="1265" spans="1:7">
@@ -31586,7 +31608,7 @@
         <v>2698280</v>
       </c>
       <c r="G1265">
-        <v>2655755</v>
+        <v>2655799</v>
       </c>
     </row>
     <row r="1266" spans="1:7">
@@ -31678,7 +31700,7 @@
         <v>1385395</v>
       </c>
       <c r="G1269">
-        <v>1364431</v>
+        <v>1364447</v>
       </c>
     </row>
     <row r="1270" spans="1:7">
@@ -31724,7 +31746,7 @@
         <v>61278</v>
       </c>
       <c r="G1271">
-        <v>60279</v>
+        <v>60281</v>
       </c>
     </row>
     <row r="1272" spans="1:7">
@@ -31770,7 +31792,7 @@
         <v>159015</v>
       </c>
       <c r="G1273">
-        <v>156588</v>
+        <v>156589</v>
       </c>
     </row>
     <row r="1274" spans="1:7">
@@ -32713,7 +32735,7 @@
         <v>988177</v>
       </c>
       <c r="G1314">
-        <v>973028</v>
+        <v>973042</v>
       </c>
     </row>
     <row r="1315" spans="1:7">
@@ -32736,7 +32758,7 @@
         <v>298434</v>
       </c>
       <c r="G1315">
-        <v>294036</v>
+        <v>294042</v>
       </c>
     </row>
     <row r="1316" spans="1:7">
@@ -34369,7 +34391,7 @@
         <v>182750</v>
       </c>
       <c r="G1386">
-        <v>179735</v>
+        <v>179743</v>
       </c>
     </row>
     <row r="1387" spans="1:7">
@@ -34392,7 +34414,7 @@
         <v>2767710</v>
       </c>
       <c r="G1387">
-        <v>2722128</v>
+        <v>2722190</v>
       </c>
     </row>
     <row r="1388" spans="1:7">
@@ -34415,7 +34437,7 @@
         <v>68570</v>
       </c>
       <c r="G1388">
-        <v>67726</v>
+        <v>67727</v>
       </c>
     </row>
     <row r="1389" spans="1:7">
@@ -34507,7 +34529,7 @@
         <v>611671</v>
       </c>
       <c r="G1392">
-        <v>603107</v>
+        <v>603117</v>
       </c>
     </row>
     <row r="1393" spans="1:7">
@@ -34553,7 +34575,7 @@
         <v>138524</v>
       </c>
       <c r="G1394">
-        <v>136481</v>
+        <v>136486</v>
       </c>
     </row>
     <row r="1395" spans="1:7">
@@ -34576,7 +34598,7 @@
         <v>1316174</v>
       </c>
       <c r="G1395">
-        <v>1293568</v>
+        <v>1293596</v>
       </c>
     </row>
     <row r="1396" spans="1:7">
@@ -34737,7 +34759,7 @@
         <v>888710</v>
       </c>
       <c r="G1402">
-        <v>876239</v>
+        <v>876261</v>
       </c>
     </row>
     <row r="1403" spans="1:7">
@@ -34760,7 +34782,7 @@
         <v>300873</v>
       </c>
       <c r="G1403">
-        <v>294965</v>
+        <v>294974</v>
       </c>
     </row>
     <row r="1404" spans="1:7">
@@ -35726,7 +35748,7 @@
         <v>1610268</v>
       </c>
       <c r="G1445">
-        <v>1581353</v>
+        <v>1581393</v>
       </c>
     </row>
     <row r="1446" spans="1:7">
@@ -35749,7 +35771,7 @@
         <v>1569508</v>
       </c>
       <c r="G1446">
-        <v>1545038</v>
+        <v>1545077</v>
       </c>
     </row>
     <row r="1447" spans="1:7">
@@ -37543,7 +37565,7 @@
         <v>114080</v>
       </c>
       <c r="G1524">
-        <v>112223</v>
+        <v>112228</v>
       </c>
     </row>
     <row r="1525" spans="1:7">
@@ -37589,7 +37611,7 @@
         <v>91077</v>
       </c>
       <c r="G1526">
-        <v>89506</v>
+        <v>89509</v>
       </c>
     </row>
     <row r="1527" spans="1:7">
@@ -37727,7 +37749,7 @@
         <v>957068</v>
       </c>
       <c r="G1532">
-        <v>939857</v>
+        <v>939880</v>
       </c>
     </row>
     <row r="1533" spans="1:7">
@@ -37750,7 +37772,7 @@
         <v>52122</v>
       </c>
       <c r="G1533">
-        <v>51360</v>
+        <v>51362</v>
       </c>
     </row>
     <row r="1534" spans="1:7">
@@ -37773,7 +37795,7 @@
         <v>470494</v>
       </c>
       <c r="G1534">
-        <v>463325</v>
+        <v>463329</v>
       </c>
     </row>
     <row r="1535" spans="1:7">
@@ -37796,7 +37818,7 @@
         <v>1243761</v>
       </c>
       <c r="G1535">
-        <v>1223587</v>
+        <v>1223619</v>
       </c>
     </row>
     <row r="1536" spans="1:7">
@@ -38026,7 +38048,7 @@
         <v>390193</v>
       </c>
       <c r="G1545">
-        <v>380491</v>
+        <v>380506</v>
       </c>
     </row>
     <row r="1546" spans="1:7">
@@ -38946,7 +38968,7 @@
         <v>1348487</v>
       </c>
       <c r="G1585">
-        <v>1324537</v>
+        <v>1324582</v>
       </c>
     </row>
     <row r="1586" spans="1:7">
@@ -38969,7 +38991,7 @@
         <v>846656</v>
       </c>
       <c r="G1586">
-        <v>831773</v>
+        <v>831799</v>
       </c>
     </row>
     <row r="1587" spans="1:7">
@@ -40786,7 +40808,7 @@
         <v>91120</v>
       </c>
       <c r="G1665">
-        <v>89410</v>
+        <v>89412</v>
       </c>
     </row>
     <row r="1666" spans="1:7">
@@ -40809,7 +40831,7 @@
         <v>321299</v>
       </c>
       <c r="G1666">
-        <v>318820</v>
+        <v>318824</v>
       </c>
     </row>
     <row r="1667" spans="1:7">
@@ -40924,7 +40946,7 @@
         <v>1035282</v>
       </c>
       <c r="G1671">
-        <v>1019690</v>
+        <v>1019712</v>
       </c>
     </row>
     <row r="1672" spans="1:7">
@@ -41867,7 +41889,7 @@
         <v>985907</v>
       </c>
       <c r="G1712">
-        <v>964904</v>
+        <v>964937</v>
       </c>
     </row>
     <row r="1713" spans="1:7">
@@ -43270,7 +43292,7 @@
         <v>91084</v>
       </c>
       <c r="G1773">
-        <v>89137</v>
+        <v>89145</v>
       </c>
     </row>
     <row r="1774" spans="1:7">
@@ -43477,7 +43499,7 @@
         <v>1362149</v>
       </c>
       <c r="G1782">
-        <v>1335634</v>
+        <v>1335698</v>
       </c>
     </row>
     <row r="1783" spans="1:7">
@@ -43523,7 +43545,7 @@
         <v>681374</v>
       </c>
       <c r="G1784">
-        <v>667643</v>
+        <v>667671</v>
       </c>
     </row>
     <row r="1785" spans="1:7">
@@ -44903,7 +44925,7 @@
         <v>9869557</v>
       </c>
       <c r="G1844">
-        <v>9714867</v>
+        <v>9714869</v>
       </c>
     </row>
     <row r="1845" spans="1:7">
@@ -45294,7 +45316,7 @@
         <v>91370</v>
       </c>
       <c r="G1861">
-        <v>89372</v>
+        <v>89375</v>
       </c>
     </row>
     <row r="1862" spans="1:7">
@@ -45317,7 +45339,7 @@
         <v>461576</v>
       </c>
       <c r="G1862">
-        <v>454146</v>
+        <v>454183</v>
       </c>
     </row>
     <row r="1863" spans="1:7">
@@ -45363,7 +45385,7 @@
         <v>1605498</v>
       </c>
       <c r="G1864">
-        <v>1570438</v>
+        <v>1570511</v>
       </c>
     </row>
     <row r="1865" spans="1:7">
@@ -45524,7 +45546,7 @@
         <v>744329</v>
       </c>
       <c r="G1871">
-        <v>726985</v>
+        <v>727026</v>
       </c>
     </row>
     <row r="1872" spans="1:7">
@@ -45547,7 +45569,7 @@
         <v>56070</v>
       </c>
       <c r="G1872">
-        <v>55003</v>
+        <v>55005</v>
       </c>
     </row>
     <row r="1873" spans="1:7">
@@ -45570,7 +45592,7 @@
         <v>3864701</v>
       </c>
       <c r="G1873">
-        <v>3774390</v>
+        <v>3774647</v>
       </c>
     </row>
     <row r="1874" spans="1:7">
@@ -45685,7 +45707,7 @@
         <v>67534</v>
       </c>
       <c r="G1878">
-        <v>66022</v>
+        <v>66029</v>
       </c>
     </row>
     <row r="1879" spans="1:7">
@@ -46398,7 +46420,7 @@
         <v>496745</v>
       </c>
       <c r="G1909">
-        <v>484587</v>
+        <v>484624</v>
       </c>
     </row>
     <row r="1910" spans="1:7">
@@ -47939,7 +47961,7 @@
         <v>339719</v>
       </c>
       <c r="G1976">
-        <v>331807</v>
+        <v>331823</v>
       </c>
     </row>
     <row r="1977" spans="1:7">
@@ -47962,7 +47984,7 @@
         <v>1822746</v>
       </c>
       <c r="G1977">
-        <v>1781468</v>
+        <v>1781625</v>
       </c>
     </row>
     <row r="1978" spans="1:7">
@@ -48123,7 +48145,7 @@
         <v>586552</v>
       </c>
       <c r="G1984">
-        <v>571691</v>
+        <v>571770</v>
       </c>
     </row>
     <row r="1985" spans="1:7">
@@ -48146,7 +48168,7 @@
         <v>28128</v>
       </c>
       <c r="G1985">
-        <v>27525</v>
+        <v>27528</v>
       </c>
     </row>
     <row r="1986" spans="1:7">
@@ -48169,7 +48191,7 @@
         <v>3318916</v>
       </c>
       <c r="G1986">
-        <v>3241819</v>
+        <v>3242116</v>
       </c>
     </row>
     <row r="1987" spans="1:7">
@@ -48284,7 +48306,7 @@
         <v>1073166</v>
       </c>
       <c r="G1991">
-        <v>1054682</v>
+        <v>1054735</v>
       </c>
     </row>
     <row r="1992" spans="1:7">
@@ -48353,7 +48375,7 @@
         <v>593279</v>
       </c>
       <c r="G1994">
-        <v>577571</v>
+        <v>577637</v>
       </c>
     </row>
     <row r="1995" spans="1:7">
@@ -48376,7 +48398,7 @@
         <v>366802</v>
       </c>
       <c r="G1995">
-        <v>362325</v>
+        <v>362367</v>
       </c>
     </row>
     <row r="1996" spans="1:7">
@@ -49158,7 +49180,7 @@
         <v>922634</v>
       </c>
       <c r="G2029">
-        <v>900161</v>
+        <v>900265</v>
       </c>
     </row>
     <row r="2030" spans="1:7">
@@ -50814,7 +50836,7 @@
         <v>425738</v>
       </c>
       <c r="G2101">
-        <v>414144</v>
+        <v>414217</v>
       </c>
     </row>
     <row r="2102" spans="1:7">
@@ -50837,7 +50859,7 @@
         <v>927822</v>
       </c>
       <c r="G2102">
-        <v>901707</v>
+        <v>901931</v>
       </c>
     </row>
     <row r="2103" spans="1:7">
@@ -50975,7 +50997,7 @@
         <v>489188</v>
       </c>
       <c r="G2108">
-        <v>471835</v>
+        <v>471975</v>
       </c>
     </row>
     <row r="2109" spans="1:7">
@@ -51021,7 +51043,7 @@
         <v>359953</v>
       </c>
       <c r="G2110">
-        <v>352915</v>
+        <v>353010</v>
       </c>
     </row>
     <row r="2111" spans="1:7">
@@ -51113,7 +51135,7 @@
         <v>227479</v>
       </c>
       <c r="G2114">
-        <v>219525</v>
+        <v>219629</v>
       </c>
     </row>
     <row r="2115" spans="1:7">
@@ -51136,7 +51158,7 @@
         <v>2117797</v>
       </c>
       <c r="G2115">
-        <v>2066431</v>
+        <v>2066894</v>
       </c>
     </row>
     <row r="2116" spans="1:7">
@@ -51159,7 +51181,7 @@
         <v>730362</v>
       </c>
       <c r="G2116">
-        <v>705462</v>
+        <v>705767</v>
       </c>
     </row>
     <row r="2117" spans="1:7">
@@ -51182,7 +51204,7 @@
         <v>695591</v>
       </c>
       <c r="G2117">
-        <v>680287</v>
+        <v>680473</v>
       </c>
     </row>
     <row r="2118" spans="1:7">
@@ -52056,7 +52078,7 @@
         <v>904711</v>
       </c>
       <c r="G2155">
-        <v>879180</v>
+        <v>879389</v>
       </c>
     </row>
     <row r="2156" spans="1:7">
@@ -52102,7 +52124,7 @@
         <v>893801</v>
       </c>
       <c r="G2157">
-        <v>866645</v>
+        <v>866963</v>
       </c>
     </row>
     <row r="2158" spans="1:7">
@@ -52562,7 +52584,7 @@
         <v>1583087</v>
       </c>
       <c r="G2177">
-        <v>1087693</v>
+        <v>1087695</v>
       </c>
     </row>
     <row r="2178" spans="1:7">
@@ -52769,7 +52791,7 @@
         <v>109656</v>
       </c>
       <c r="G2186">
-        <v>107291</v>
+        <v>107313</v>
       </c>
     </row>
     <row r="2187" spans="1:7">
@@ -52861,7 +52883,7 @@
         <v>1513</v>
       </c>
       <c r="G2190">
-        <v>1491</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2191" spans="1:7">
@@ -52907,7 +52929,7 @@
         <v>175327</v>
       </c>
       <c r="G2192">
-        <v>147440</v>
+        <v>147454</v>
       </c>
     </row>
     <row r="2193" spans="1:7">
@@ -53022,7 +53044,7 @@
         <v>295158</v>
       </c>
       <c r="G2197">
-        <v>289595</v>
+        <v>289644</v>
       </c>
     </row>
     <row r="2198" spans="1:7">
@@ -53045,7 +53067,7 @@
         <v>36874</v>
       </c>
       <c r="G2198">
-        <v>36006</v>
+        <v>36014</v>
       </c>
     </row>
     <row r="2199" spans="1:7">
@@ -53091,7 +53113,7 @@
         <v>13849</v>
       </c>
       <c r="G2200">
-        <v>13495</v>
+        <v>13499</v>
       </c>
     </row>
     <row r="2201" spans="1:7">
@@ -53344,7 +53366,7 @@
         <v>42593</v>
       </c>
       <c r="G2211">
-        <v>41810</v>
+        <v>41812</v>
       </c>
     </row>
     <row r="2212" spans="1:7">
@@ -53459,7 +53481,7 @@
         <v>44422</v>
       </c>
       <c r="G2216">
-        <v>42680</v>
+        <v>42705</v>
       </c>
     </row>
     <row r="2217" spans="1:7">
@@ -53482,7 +53504,7 @@
         <v>58258</v>
       </c>
       <c r="G2217">
-        <v>53074</v>
+        <v>53091</v>
       </c>
     </row>
     <row r="2218" spans="1:7">
@@ -53689,7 +53711,7 @@
         <v>796895656</v>
       </c>
       <c r="G2226">
-        <v>724437022</v>
+        <v>724441435</v>
       </c>
     </row>
   </sheetData>
@@ -54022,7 +54044,7 @@
         <v>692803</v>
       </c>
       <c r="E19">
-        <v>687555</v>
+        <v>687563</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -54056,7 +54078,7 @@
         <v>1692801</v>
       </c>
       <c r="E21">
-        <v>1658026</v>
+        <v>1658140</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -54090,7 +54112,7 @@
         <v>7102009</v>
       </c>
       <c r="E23">
-        <v>6969765</v>
+        <v>6970268</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -54532,7 +54554,7 @@
         <v>3492890</v>
       </c>
       <c r="E49">
-        <v>3436886</v>
+        <v>3436970</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -55280,7 +55302,7 @@
         <v>4190307</v>
       </c>
       <c r="E93">
-        <v>4134748</v>
+        <v>4134761</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -55348,7 +55370,7 @@
         <v>4770816</v>
       </c>
       <c r="E97">
-        <v>4704401</v>
+        <v>4704456</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -55382,7 +55404,7 @@
         <v>104158</v>
       </c>
       <c r="E99">
-        <v>102833</v>
+        <v>102835</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -55416,7 +55438,7 @@
         <v>8783839</v>
       </c>
       <c r="E101">
-        <v>8622826</v>
+        <v>8623115</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -55654,7 +55676,7 @@
         <v>200698</v>
       </c>
       <c r="E115">
-        <v>197390</v>
+        <v>197397</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -55841,7 +55863,7 @@
         <v>49669180</v>
       </c>
       <c r="E126">
-        <v>40997966</v>
+        <v>40997968</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -55909,7 +55931,7 @@
         <v>23253716</v>
       </c>
       <c r="E130">
-        <v>22842211</v>
+        <v>22843070</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -56232,7 +56254,7 @@
         <v>6219626</v>
       </c>
       <c r="E149">
-        <v>6130731</v>
+        <v>6130803</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -56300,7 +56322,7 @@
         <v>227488</v>
       </c>
       <c r="E153">
-        <v>219534</v>
+        <v>219638</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -56351,7 +56373,7 @@
         <v>7263104</v>
       </c>
       <c r="E156">
-        <v>7138330</v>
+        <v>7138895</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -56487,7 +56509,7 @@
         <v>6666411</v>
       </c>
       <c r="E164">
-        <v>6524253</v>
+        <v>6524574</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -56555,7 +56577,7 @@
         <v>6013688</v>
       </c>
       <c r="E168">
-        <v>5887147</v>
+        <v>5887710</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -56589,7 +56611,7 @@
         <v>1682819</v>
       </c>
       <c r="E170">
-        <v>1636277</v>
+        <v>1636661</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -56708,7 +56730,7 @@
         <v>6963108</v>
       </c>
       <c r="E177">
-        <v>6853702</v>
+        <v>6854000</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -57048,7 +57070,7 @@
         <v>850081</v>
       </c>
       <c r="E197">
-        <v>832044</v>
+        <v>832069</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -57439,7 +57461,7 @@
         <v>1593972</v>
       </c>
       <c r="E220">
-        <v>1474114</v>
+        <v>1474131</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -57473,7 +57495,7 @@
         <v>1453577</v>
       </c>
       <c r="E222">
-        <v>1434568</v>
+        <v>1434590</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -57677,7 +57699,7 @@
         <v>24394</v>
       </c>
       <c r="E234">
-        <v>24074</v>
+        <v>24076</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -57762,7 +57784,7 @@
         <v>3399233</v>
       </c>
       <c r="E239">
-        <v>2649917</v>
+        <v>2649931</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -58017,7 +58039,7 @@
         <v>295158</v>
       </c>
       <c r="E254">
-        <v>289595</v>
+        <v>289644</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -58102,7 +58124,7 @@
         <v>36908</v>
       </c>
       <c r="E259">
-        <v>36040</v>
+        <v>36048</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -58153,7 +58175,7 @@
         <v>287909</v>
       </c>
       <c r="E262">
-        <v>281542</v>
+        <v>281546</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -58306,7 +58328,7 @@
         <v>66152128</v>
       </c>
       <c r="E271">
-        <v>65044055</v>
+        <v>65044057</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -58612,7 +58634,7 @@
         <v>550482</v>
       </c>
       <c r="E289">
-        <v>540474</v>
+        <v>540476</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -58816,7 +58838,7 @@
         <v>369533</v>
       </c>
       <c r="E301">
-        <v>359731</v>
+        <v>359756</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -58833,7 +58855,7 @@
         <v>796895656</v>
       </c>
       <c r="E302">
-        <v>724437022</v>
+        <v>724441435</v>
       </c>
     </row>
   </sheetData>
@@ -59030,7 +59052,7 @@
         <v>692803</v>
       </c>
       <c r="E11">
-        <v>687555</v>
+        <v>687563</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -59081,7 +59103,7 @@
         <v>1692801</v>
       </c>
       <c r="E14">
-        <v>1658026</v>
+        <v>1658140</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -59115,7 +59137,7 @@
         <v>7102009</v>
       </c>
       <c r="E16">
-        <v>6969765</v>
+        <v>6970268</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -59319,7 +59341,7 @@
         <v>1593972</v>
       </c>
       <c r="E28">
-        <v>1474114</v>
+        <v>1474131</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -59421,7 +59443,7 @@
         <v>1453577</v>
       </c>
       <c r="E34">
-        <v>1434568</v>
+        <v>1434590</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -59761,7 +59783,7 @@
         <v>3492890</v>
       </c>
       <c r="E54">
-        <v>3436886</v>
+        <v>3436970</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -60441,7 +60463,7 @@
         <v>24394</v>
       </c>
       <c r="E94">
-        <v>24074</v>
+        <v>24076</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -60594,7 +60616,7 @@
         <v>3399233</v>
       </c>
       <c r="E103">
-        <v>2649917</v>
+        <v>2649931</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -60934,7 +60956,7 @@
         <v>4190307</v>
       </c>
       <c r="E123">
-        <v>4134748</v>
+        <v>4134761</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -61036,7 +61058,7 @@
         <v>4770816</v>
       </c>
       <c r="E129">
-        <v>4704401</v>
+        <v>4704456</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -61070,7 +61092,7 @@
         <v>104158</v>
       </c>
       <c r="E131">
-        <v>102833</v>
+        <v>102835</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -61172,7 +61194,7 @@
         <v>8783839</v>
       </c>
       <c r="E137">
-        <v>8622826</v>
+        <v>8623115</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -61325,7 +61347,7 @@
         <v>295158</v>
       </c>
       <c r="E146">
-        <v>289595</v>
+        <v>289644</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -61495,7 +61517,7 @@
         <v>200698</v>
       </c>
       <c r="E156">
-        <v>197390</v>
+        <v>197397</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -61682,7 +61704,7 @@
         <v>36908</v>
       </c>
       <c r="E167">
-        <v>36040</v>
+        <v>36048</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -61750,7 +61772,7 @@
         <v>287909</v>
       </c>
       <c r="E171">
-        <v>281542</v>
+        <v>281546</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -61801,7 +61823,7 @@
         <v>49669180</v>
       </c>
       <c r="E174">
-        <v>40997966</v>
+        <v>40997968</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -61903,7 +61925,7 @@
         <v>23253716</v>
       </c>
       <c r="E180">
-        <v>22842211</v>
+        <v>22843070</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -62209,7 +62231,7 @@
         <v>66152128</v>
       </c>
       <c r="E198">
-        <v>65044055</v>
+        <v>65044057</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -62379,7 +62401,7 @@
         <v>6219626</v>
       </c>
       <c r="E208">
-        <v>6130731</v>
+        <v>6130803</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -62447,7 +62469,7 @@
         <v>227488</v>
       </c>
       <c r="E212">
-        <v>219534</v>
+        <v>219638</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -62498,7 +62520,7 @@
         <v>7263104</v>
       </c>
       <c r="E215">
-        <v>7138330</v>
+        <v>7138895</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -62770,7 +62792,7 @@
         <v>6666411</v>
       </c>
       <c r="E231">
-        <v>6524253</v>
+        <v>6524574</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -62838,7 +62860,7 @@
         <v>6013688</v>
       </c>
       <c r="E235">
-        <v>5887147</v>
+        <v>5887710</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -62872,7 +62894,7 @@
         <v>1682819</v>
       </c>
       <c r="E237">
-        <v>1636277</v>
+        <v>1636661</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -63059,7 +63081,7 @@
         <v>6963108</v>
       </c>
       <c r="E248">
-        <v>6853702</v>
+        <v>6854000</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -63331,7 +63353,7 @@
         <v>550482</v>
       </c>
       <c r="E264">
-        <v>540474</v>
+        <v>540476</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -63722,7 +63744,7 @@
         <v>850081</v>
       </c>
       <c r="E287">
-        <v>832044</v>
+        <v>832069</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -63773,7 +63795,7 @@
         <v>369533</v>
       </c>
       <c r="E290">
-        <v>359731</v>
+        <v>359756</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -63977,10 +63999,378 @@
         <v>796895656</v>
       </c>
       <c r="E302">
-        <v>724437022</v>
+        <v>724441435</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="2">
+        <v>45689</v>
+      </c>
+      <c r="D1" s="2">
+        <v>45690</v>
+      </c>
+      <c r="E1" s="2">
+        <v>45691</v>
+      </c>
+      <c r="F1" s="2">
+        <v>45692</v>
+      </c>
+      <c r="G1" s="2">
+        <v>45693</v>
+      </c>
+      <c r="H1" s="2">
+        <v>45694</v>
+      </c>
+      <c r="I1" s="2">
+        <v>45695</v>
+      </c>
+      <c r="J1" s="2">
+        <v>45696</v>
+      </c>
+      <c r="K1" s="2">
+        <v>45697</v>
+      </c>
+      <c r="L1" s="2">
+        <v>45698</v>
+      </c>
+      <c r="M1" s="2">
+        <v>45699</v>
+      </c>
+      <c r="N1" s="2">
+        <v>45700</v>
+      </c>
+      <c r="O1" s="2">
+        <v>45701</v>
+      </c>
+      <c r="P1" s="2">
+        <v>45702</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>45703</v>
+      </c>
+      <c r="R1" s="2">
+        <v>45704</v>
+      </c>
+      <c r="S1" s="2">
+        <v>45705</v>
+      </c>
+      <c r="T1" s="2">
+        <v>45706</v>
+      </c>
+      <c r="U1" s="2">
+        <v>45707</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2">
+        <v>4312978</v>
+      </c>
+      <c r="D2">
+        <v>2362313</v>
+      </c>
+      <c r="E2">
+        <v>2860741</v>
+      </c>
+      <c r="F2">
+        <v>3491688</v>
+      </c>
+      <c r="G2">
+        <v>3264262</v>
+      </c>
+      <c r="H2">
+        <v>3419828</v>
+      </c>
+      <c r="I2">
+        <v>3328297</v>
+      </c>
+      <c r="J2">
+        <v>3549117</v>
+      </c>
+      <c r="K2">
+        <v>1841308</v>
+      </c>
+      <c r="L2">
+        <v>2508408</v>
+      </c>
+      <c r="M2">
+        <v>3634826</v>
+      </c>
+      <c r="N2">
+        <v>3138913</v>
+      </c>
+      <c r="O2">
+        <v>3771077</v>
+      </c>
+      <c r="P2">
+        <v>1139660</v>
+      </c>
+      <c r="Q2">
+        <v>3092281</v>
+      </c>
+      <c r="R2">
+        <v>1757660</v>
+      </c>
+      <c r="S2">
+        <v>3047918</v>
+      </c>
+      <c r="T2">
+        <v>3719917</v>
+      </c>
+      <c r="U2">
+        <v>3202694</v>
+      </c>
+      <c r="V2">
+        <v>57443886</v>
+      </c>
+      <c r="W2">
+        <v>80421440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3">
+        <v>15818316</v>
+      </c>
+      <c r="D3">
+        <v>13899039</v>
+      </c>
+      <c r="E3">
+        <v>13253350</v>
+      </c>
+      <c r="F3">
+        <v>13742976</v>
+      </c>
+      <c r="G3">
+        <v>14723015</v>
+      </c>
+      <c r="H3">
+        <v>13371957</v>
+      </c>
+      <c r="I3">
+        <v>13818204</v>
+      </c>
+      <c r="J3">
+        <v>13076977</v>
+      </c>
+      <c r="K3">
+        <v>11967867</v>
+      </c>
+      <c r="L3">
+        <v>15469798</v>
+      </c>
+      <c r="M3">
+        <v>16462348</v>
+      </c>
+      <c r="N3">
+        <v>14925674</v>
+      </c>
+      <c r="O3">
+        <v>13544774</v>
+      </c>
+      <c r="P3">
+        <v>6326453</v>
+      </c>
+      <c r="Q3">
+        <v>15612511</v>
+      </c>
+      <c r="R3">
+        <v>12685503</v>
+      </c>
+      <c r="S3">
+        <v>21395903</v>
+      </c>
+      <c r="T3">
+        <v>20057075</v>
+      </c>
+      <c r="U3">
+        <v>16261913</v>
+      </c>
+      <c r="V3">
+        <v>276413653</v>
+      </c>
+      <c r="W3">
+        <v>386979114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4">
+        <v>9454582</v>
+      </c>
+      <c r="D4">
+        <v>5386192</v>
+      </c>
+      <c r="E4">
+        <v>6444326</v>
+      </c>
+      <c r="F4">
+        <v>7817360</v>
+      </c>
+      <c r="G4">
+        <v>7300294</v>
+      </c>
+      <c r="H4">
+        <v>7595184</v>
+      </c>
+      <c r="I4">
+        <v>7390814</v>
+      </c>
+      <c r="J4">
+        <v>5836141</v>
+      </c>
+      <c r="K4">
+        <v>4303868</v>
+      </c>
+      <c r="L4">
+        <v>5614895</v>
+      </c>
+      <c r="M4">
+        <v>7709990</v>
+      </c>
+      <c r="N4">
+        <v>7034322</v>
+      </c>
+      <c r="O4">
+        <v>7146833</v>
+      </c>
+      <c r="P4">
+        <v>2489553</v>
+      </c>
+      <c r="Q4">
+        <v>7074096</v>
+      </c>
+      <c r="R4">
+        <v>4125530</v>
+      </c>
+      <c r="S4">
+        <v>7264771</v>
+      </c>
+      <c r="T4">
+        <v>8672072</v>
+      </c>
+      <c r="U4">
+        <v>7632319</v>
+      </c>
+      <c r="V4">
+        <v>126293142</v>
+      </c>
+      <c r="W4">
+        <v>176810399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5">
+        <v>15825540</v>
+      </c>
+      <c r="D5">
+        <v>13905032</v>
+      </c>
+      <c r="E5">
+        <v>13261055</v>
+      </c>
+      <c r="F5">
+        <v>13751805</v>
+      </c>
+      <c r="G5">
+        <v>14732467</v>
+      </c>
+      <c r="H5">
+        <v>13381771</v>
+      </c>
+      <c r="I5">
+        <v>13826251</v>
+      </c>
+      <c r="J5">
+        <v>13081577</v>
+      </c>
+      <c r="K5">
+        <v>11971905</v>
+      </c>
+      <c r="L5">
+        <v>15477881</v>
+      </c>
+      <c r="M5">
+        <v>16469476</v>
+      </c>
+      <c r="N5">
+        <v>14933312</v>
+      </c>
+      <c r="O5">
+        <v>13551777</v>
+      </c>
+      <c r="P5">
+        <v>6334590</v>
+      </c>
+      <c r="Q5">
+        <v>15628830</v>
+      </c>
+      <c r="R5">
+        <v>12691487</v>
+      </c>
+      <c r="S5">
+        <v>21402567</v>
+      </c>
+      <c r="T5">
+        <v>20063251</v>
+      </c>
+      <c r="U5">
+        <v>16274968</v>
+      </c>
+      <c r="V5">
+        <v>276565542</v>
+      </c>
+      <c r="W5">
+        <v>387191759</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>